--- a/CAN/TORCH CAN Protocol.xlsx
+++ b/CAN/TORCH CAN Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA321373-3F0F-42C5-A23C-C51B8120D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14086D-5362-43CB-8A53-002B2ADE8E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messages" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>ELCON_STATUS</t>
   </si>
   <si>
-    <t>ELCON_LIMIT</t>
-  </si>
-  <si>
     <t>INV_LIMIT</t>
+  </si>
+  <si>
+    <t>ELCON_LIMITS</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,21 +230,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +528,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,10 +547,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>33</v>
@@ -579,10 +578,10 @@
       <c r="C2" s="5">
         <v>514</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>403105268</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>419385573</v>
       </c>
       <c r="F2" s="5">
@@ -602,28 +601,28 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -631,43 +630,43 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -675,39 +674,39 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -715,22 +714,22 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -738,35 +737,35 @@
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -795,17 +794,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E3:E4"/>
@@ -815,6 +803,17 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
